--- a/ClosedToMatured.xlsx
+++ b/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="288">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,361 +43,841 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010146865</t>
-  </si>
-  <si>
-    <t>12010509979</t>
-  </si>
-  <si>
-    <t>12010133456</t>
-  </si>
-  <si>
-    <t>12010140023</t>
-  </si>
-  <si>
-    <t>90000016084</t>
-  </si>
-  <si>
-    <t>12010110353</t>
-  </si>
-  <si>
-    <t>1201500851</t>
-  </si>
-  <si>
-    <t>12010507920</t>
-  </si>
-  <si>
-    <t>90000021636</t>
-  </si>
-  <si>
-    <t>12010505143</t>
-  </si>
-  <si>
-    <t>12010506568</t>
-  </si>
-  <si>
-    <t>1201500462</t>
-  </si>
-  <si>
-    <t>12010509060</t>
-  </si>
-  <si>
-    <t>12010109925</t>
-  </si>
-  <si>
-    <t>12010507121</t>
-  </si>
-  <si>
-    <t>12010500872</t>
-  </si>
-  <si>
-    <t>12010146646</t>
-  </si>
-  <si>
-    <t>12010511339</t>
-  </si>
-  <si>
-    <t>12010110296</t>
-  </si>
-  <si>
-    <t>90000006798</t>
-  </si>
-  <si>
-    <t>90000010867</t>
-  </si>
-  <si>
-    <t>12010506884</t>
-  </si>
-  <si>
-    <t>12010508552</t>
-  </si>
-  <si>
-    <t>Prescription Point</t>
-  </si>
-  <si>
-    <t>Anower Khan Modern Hospital In</t>
-  </si>
-  <si>
-    <t>Sumona Pharmacy</t>
-  </si>
-  <si>
-    <t>Sanim Pharmacy</t>
-  </si>
-  <si>
-    <t>Medicine Plus</t>
-  </si>
-  <si>
-    <t>Haque Medical Hall</t>
-  </si>
-  <si>
-    <t>Aram Pharmacy</t>
-  </si>
-  <si>
-    <t>Lab Aid Diagonostic</t>
-  </si>
-  <si>
-    <t>Dhoal Pharma</t>
-  </si>
-  <si>
-    <t>Ismail Drug House</t>
-  </si>
-  <si>
-    <t>United Medicin Corner</t>
-  </si>
-  <si>
-    <t>Mowla Drug House</t>
-  </si>
-  <si>
-    <t>Salman Pharmacy</t>
-  </si>
-  <si>
-    <t>Sangita Medical Hall</t>
-  </si>
-  <si>
-    <t>Adorsho Dental Care</t>
-  </si>
-  <si>
-    <t>Maa Pharmacy</t>
+    <t>51051100247</t>
+  </si>
+  <si>
+    <t>51051001163</t>
+  </si>
+  <si>
+    <t>51051100059</t>
+  </si>
+  <si>
+    <t>51052150018</t>
+  </si>
+  <si>
+    <t>51051000054</t>
+  </si>
+  <si>
+    <t>51052000230</t>
+  </si>
+  <si>
+    <t>51052104073</t>
+  </si>
+  <si>
+    <t>51051001088</t>
+  </si>
+  <si>
+    <t>51052103924</t>
+  </si>
+  <si>
+    <t>51051100017</t>
+  </si>
+  <si>
+    <t>51051004236</t>
+  </si>
+  <si>
+    <t>51052103860</t>
+  </si>
+  <si>
+    <t>51051004217</t>
+  </si>
+  <si>
+    <t>51052138722</t>
+  </si>
+  <si>
+    <t>51051001745</t>
+  </si>
+  <si>
+    <t>51051101809</t>
+  </si>
+  <si>
+    <t>51052438699</t>
+  </si>
+  <si>
+    <t>51051001726</t>
+  </si>
+  <si>
+    <t>51052108838</t>
+  </si>
+  <si>
+    <t>51052141597</t>
+  </si>
+  <si>
+    <t>51052134721</t>
+  </si>
+  <si>
+    <t>51051000059</t>
+  </si>
+  <si>
+    <t>51052104705</t>
+  </si>
+  <si>
+    <t>51052138441</t>
+  </si>
+  <si>
+    <t>51052134160</t>
+  </si>
+  <si>
+    <t>90000000851</t>
+  </si>
+  <si>
+    <t>51051000070</t>
+  </si>
+  <si>
+    <t>51051100909</t>
+  </si>
+  <si>
+    <t>51052149833</t>
+  </si>
+  <si>
+    <t>51052004026</t>
+  </si>
+  <si>
+    <t>51051100049</t>
+  </si>
+  <si>
+    <t>51051000344</t>
+  </si>
+  <si>
+    <t>51051100867</t>
+  </si>
+  <si>
+    <t>51052141971</t>
+  </si>
+  <si>
+    <t>51052000233</t>
+  </si>
+  <si>
+    <t>90000004622</t>
+  </si>
+  <si>
+    <t>51052160001</t>
+  </si>
+  <si>
+    <t>51051003613</t>
+  </si>
+  <si>
+    <t>51052149416</t>
+  </si>
+  <si>
+    <t>51051003150</t>
+  </si>
+  <si>
+    <t>51052149431</t>
+  </si>
+  <si>
+    <t>51052103719</t>
+  </si>
+  <si>
+    <t>51052104210</t>
+  </si>
+  <si>
+    <t>51011118671</t>
+  </si>
+  <si>
+    <t>51051000648</t>
+  </si>
+  <si>
+    <t>51011117655</t>
+  </si>
+  <si>
+    <t>51011110234</t>
+  </si>
+  <si>
+    <t>90000009998</t>
+  </si>
+  <si>
+    <t>51051100965</t>
+  </si>
+  <si>
+    <t>51011120166</t>
+  </si>
+  <si>
+    <t>5101118692</t>
+  </si>
+  <si>
+    <t>90000002865</t>
+  </si>
+  <si>
+    <t>51052104398</t>
+  </si>
+  <si>
+    <t>51011136552</t>
+  </si>
+  <si>
+    <t>51052134394</t>
+  </si>
+  <si>
+    <t>51011137002</t>
+  </si>
+  <si>
+    <t>51052134378</t>
+  </si>
+  <si>
+    <t>51052100681</t>
+  </si>
+  <si>
+    <t>51052138760</t>
+  </si>
+  <si>
+    <t>51051100260</t>
+  </si>
+  <si>
+    <t>51052149088</t>
+  </si>
+  <si>
+    <t>51052134199</t>
+  </si>
+  <si>
+    <t>Azad Pharmacy</t>
+  </si>
+  <si>
+    <t>Shampa Medical Hall</t>
+  </si>
+  <si>
+    <t>Habib Medical Store</t>
+  </si>
+  <si>
+    <t>Al Islam Medical Hall</t>
+  </si>
+  <si>
+    <t>Rina Clinic</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
+    <t>Sefa Medical Hall</t>
+  </si>
+  <si>
+    <t>Janata Medical Hall</t>
+  </si>
+  <si>
+    <t>Bidhan Medical Hall</t>
+  </si>
+  <si>
+    <t>Laxmi Narayan Pharmacy</t>
+  </si>
+  <si>
+    <t>Ridam Madical Hall</t>
+  </si>
+  <si>
+    <t>Akash Medical Hall</t>
+  </si>
+  <si>
+    <t>Kawser Medical Hall</t>
+  </si>
+  <si>
+    <t>Seba Pharmacy</t>
+  </si>
+  <si>
+    <t>Neel Ratan Pharmacy</t>
+  </si>
+  <si>
+    <t>Pal Medical Hall</t>
+  </si>
+  <si>
+    <t>Sharif Medical Hall</t>
+  </si>
+  <si>
+    <t>Mahmud Medical Hall</t>
+  </si>
+  <si>
+    <t>Salehi Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Jagodish Pharmacy</t>
+  </si>
+  <si>
+    <t>Moon Medical Hall</t>
+  </si>
+  <si>
+    <t>Seba Medical Hall</t>
+  </si>
+  <si>
+    <t>Biswnath Medical Hall</t>
+  </si>
+  <si>
+    <t>Sikder Medical Hall</t>
+  </si>
+  <si>
+    <t>Jamil Medical Hall</t>
+  </si>
+  <si>
+    <t>Tawhid Medical Hall</t>
+  </si>
+  <si>
+    <t>Rahman Medical Hall</t>
+  </si>
+  <si>
+    <t>Kanak Medical Hall</t>
+  </si>
+  <si>
+    <t>Anowar Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Abany</t>
+  </si>
+  <si>
+    <t>Dey Medical Hall</t>
+  </si>
+  <si>
+    <t>Bismilla Medical Hall</t>
+  </si>
+  <si>
+    <t>Alok Medical Hall</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Hawlader Medical Hall</t>
+  </si>
+  <si>
+    <t>Sadesh Medical Hall</t>
+  </si>
+  <si>
+    <t>Mizan Medical Hall</t>
+  </si>
+  <si>
+    <t>Aklima Drug House</t>
+  </si>
+  <si>
+    <t>Himlata Medical Hall</t>
+  </si>
+  <si>
+    <t>Sharif Pharmacy</t>
+  </si>
+  <si>
+    <t>Nesaria Pharmacy</t>
+  </si>
+  <si>
+    <t>Baidha Medical Hall</t>
+  </si>
+  <si>
+    <t>Manir Medical Hall</t>
+  </si>
+  <si>
+    <t>Rokeya Pharmacy</t>
   </si>
   <si>
     <t>Bhai Bhai Pharmacy</t>
   </si>
   <si>
-    <t>Laser Chain And Skin Center Lt</t>
-  </si>
-  <si>
-    <t>Tivoli Pharmacy</t>
-  </si>
-  <si>
-    <t>Nabab Pharmacy</t>
-  </si>
-  <si>
-    <t>Banani Clinic</t>
-  </si>
-  <si>
-    <t>Raz Pharmacy</t>
-  </si>
-  <si>
-    <t>Riadia Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BananiGulshanDhaka                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi 8Dhaka                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matabar BariPost Office RoadKhilkhet                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co operative MarketShahabagDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahabag ,Biponi Bitan                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">108 A East Raza BazarDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cha 97 Main RoadNorth Badda                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector 06UttaraDhaka                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co-Operative Medicine Market,Shahbag,Dhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 Aziz Co Operative MarketShahbag Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaynal MarketUttaraDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">309 Free School StreetPukar ParDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">499 East GawairUttaraDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamarpara Natun BazarUttaraDhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razabari Chowrasta UttaraDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">105 A 16 1 Shaheed Buddhijibi Road ZafrabadRayer Bazar      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hossain Plaza House 01Road 15 New DhanmondiDhaka            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Shahabug Biponi BitanShahabugDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road-5,Block-4 Metro Housing,Bosila                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block - C, House - 116, Road - 15,Banani,Dhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigatola Natun Rasta Dhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama Bazar KalasurDhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-814937     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-793320     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-879974     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-895935     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-895766     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880008     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-879401     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-815687     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896731     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896598     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880785     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880821     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880668     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880147     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880038     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-881593     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-880856     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-858642     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-898709     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-881694     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-858356     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-882002     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-882312     </t>
-  </si>
-  <si>
-    <t>20 Nov 2019</t>
-  </si>
-  <si>
-    <t>21 Oct 2019</t>
-  </si>
-  <si>
-    <t>18 Feb 2020</t>
-  </si>
-  <si>
-    <t>09 Mar 2020</t>
-  </si>
-  <si>
-    <t>21 Nov 2019</t>
-  </si>
-  <si>
-    <t>10 Mar 2020</t>
-  </si>
-  <si>
-    <t>19 Feb 2020</t>
-  </si>
-  <si>
-    <t>20 Feb 2020</t>
-  </si>
-  <si>
-    <t>22 Jan 2020</t>
-  </si>
-  <si>
-    <t>12 Mar 2020</t>
-  </si>
-  <si>
-    <t>21 Feb 2020</t>
+    <t>M K Clinic</t>
+  </si>
+  <si>
+    <t>R N Med Hall</t>
+  </si>
+  <si>
+    <t>Rafi Medical Hall</t>
+  </si>
+  <si>
+    <t>Aminur Medical Hall</t>
+  </si>
+  <si>
+    <t>Nayan Tara Pharmacy</t>
+  </si>
+  <si>
+    <t>Simanta Medical Hall</t>
+  </si>
+  <si>
+    <t>Sohel Medical Hall</t>
+  </si>
+  <si>
+    <t>Riaz Medical Hall</t>
+  </si>
+  <si>
+    <t>Munna Medical Hall</t>
+  </si>
+  <si>
+    <t>Albi Medical Hall</t>
+  </si>
+  <si>
+    <t>Ripon Pharmicy</t>
+  </si>
+  <si>
+    <t>Sree Guru Medical Hall</t>
+  </si>
+  <si>
+    <t>Islamia Eye Hospital</t>
+  </si>
+  <si>
+    <t>Dr Shah Alam Medical hall</t>
+  </si>
+  <si>
+    <t>Khan Medical Hall</t>
+  </si>
+  <si>
+    <t>Siam Medical Hall</t>
+  </si>
+  <si>
+    <t>J S Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patarhat Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muladi Barisal                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Barisal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilogram Gouranadi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowmatha Barisal Metro                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharikal Gouranadi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulania Mehendiganj Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashail Agaljara                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakerganj Barisal                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baramagra Paisherhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satla Wajirpur Barisal                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amirgonj paterhat                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawnia Main Road Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaloskathi Bakerganj                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinema Hall Road Bakerganj Barisal                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kauria Hijla Barisal                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akota Bazar Muladi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khejuria Bagda Agailjhara Barisal                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razihar, Agoljhara                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodal Dhoa Agailjhara Gournadi                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaila Bazar Agahilgara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutubpur Muladi                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khokon Complex Market Bakerganj                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliganj Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borhangonj Borhanuddin Bhola                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandher Par Hazir hat Veduria                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udoykhati Banaripara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Bhola                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirerhat, Rajapur Jhalokathi                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Dawari Khasherhat Bhola                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goreyar Notenhat Uzirpur Barisal                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hostishindo Market Wzirpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jangalia Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janata Bazar Bhola                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamar Khali Bazer Bakerganj Barisal                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taltala Bhola                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natun Bazar Barisal                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreerampur Jhalokathi                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawri Tajumuddin Bhola                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baithakata Nazirpur Pirojpur                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puran Bazar Madaripur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedarhat Muladi Barisal                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadam Bari Bazar Takerhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhur Ghata                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Paterhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayragy Bazar Tekerhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montar Poll Madaripur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sawra Bazar Hizla                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temahani Paterhat                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D C Bridge Madaripur Madaripur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathullabad Barisal                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhurgata Kalkini                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charamuddi Bakerganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogra Road Barisal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moydaner hat Babuganj Barisal                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahmatpur Babuganj Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moydaner Hat Babuganj Barisal                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battala Babuganj Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB37                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB45                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468671     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468633     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468437     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468657     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468685     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468420     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468643     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468384     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468762     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468783     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468736     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468487     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468450     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468431     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468489     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468570     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468754     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468529     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468667     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468618     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468731     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468562     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468711     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468716     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468544     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468556     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468695     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469504     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468923     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469597     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469549     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468985     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469448     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469129     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468854     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469517     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-468935     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469452     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469558     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469031     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469184     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469442     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470159     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469990     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470269     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470146     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470335     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469976     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470199     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470013     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470348     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470091     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469977     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470009     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469824     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-469797     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470356     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-422651     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470391     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470466     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470390     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-470387     </t>
+  </si>
+  <si>
+    <t>02 Apr 2020</t>
+  </si>
+  <si>
+    <t>03 Apr 2020</t>
+  </si>
+  <si>
+    <t>04 Apr 2020</t>
+  </si>
+  <si>
+    <t>06 Jan 2020</t>
+  </si>
+  <si>
+    <t>05 Apr 2020</t>
   </si>
 </sst>
 </file>
@@ -755,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,28 +1290,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="H2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>67705.82000000001</v>
+        <v>33165.96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -842,28 +1322,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="H3">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>27924.96</v>
+        <v>29146.41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -874,19 +1354,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -895,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>19494.96</v>
+        <v>15518.26</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -906,28 +1386,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15462.2</v>
+        <v>10132.59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -938,28 +1418,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15043.52</v>
+        <v>10025.86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -970,19 +1450,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -991,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12281.15</v>
+        <v>9928.610000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1002,19 +1482,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1023,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10998.34</v>
+        <v>9895.809999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1034,28 +1514,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>32820.47</v>
+        <v>9701.629999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1066,28 +1546,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19989.95</v>
+        <v>9000.75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1098,28 +1578,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15021.24</v>
+        <v>8591.959999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1130,28 +1610,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10031.38</v>
+        <v>7882.98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1162,28 +1642,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9963.48</v>
+        <v>7880.36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1194,28 +1674,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9054.82</v>
+        <v>7318.31</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1226,28 +1706,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5043.37</v>
+        <v>7135.48</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1258,28 +1738,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4985.83</v>
+        <v>5771.16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1290,28 +1770,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>20115.23</v>
+        <v>5085.81</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1322,28 +1802,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20039.82</v>
+        <v>5054.82</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1354,28 +1834,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>28447.25</v>
+        <v>5003.16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1386,28 +1866,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15274.02</v>
+        <v>4994.17</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1418,28 +1898,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="H21">
         <v>30</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>12038.22</v>
+        <v>4737.62</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1450,28 +1930,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="H22">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8616.860000000001</v>
+        <v>4578.28</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1482,28 +1962,28 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="H23">
         <v>30</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7920.8</v>
+        <v>4435.29</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1514,28 +1994,1308 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3933.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3741.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>3353.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2737.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1376.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>32952.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>24988.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>19697.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>19163.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>10050.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>9695.969999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>7010.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>5983.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5139.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>5078.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>5024.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>5010.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>4060.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1459.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>21970.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>20268.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" t="s">
+        <v>285</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>14943.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C47" t="s">
         <v>116</v>
       </c>
-      <c r="G24" t="s">
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>14823.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>10061.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" t="s">
+        <v>267</v>
+      </c>
+      <c r="G49" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>10043.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>268</v>
+      </c>
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>10032.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" t="s">
+        <v>269</v>
+      </c>
+      <c r="G51" t="s">
+        <v>285</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>9030.530000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>6500.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" t="s">
+        <v>271</v>
+      </c>
+      <c r="G53" t="s">
+        <v>285</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>5051.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" t="s">
+        <v>285</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>4663.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" t="s">
+        <v>274</v>
+      </c>
+      <c r="G56" t="s">
+        <v>285</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>4136.22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2827.14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
         <v>127</v>
       </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24">
+      <c r="D58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" t="s">
+        <v>276</v>
+      </c>
+      <c r="G58" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2581.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" t="s">
+        <v>285</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>2347.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" t="s">
+        <v>286</v>
+      </c>
+      <c r="H60">
+        <v>120</v>
+      </c>
+      <c r="I60">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>5056.07</v>
+      <c r="J60">
+        <v>13276.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F61" t="s">
+        <v>279</v>
+      </c>
+      <c r="G61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>11951.51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>219</v>
+      </c>
+      <c r="F62" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>6171.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G63" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>5020.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>5007.74</v>
       </c>
     </row>
   </sheetData>

--- a/ClosedToMatured.xlsx
+++ b/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,466 +43,517 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>250614141803</t>
-  </si>
-  <si>
-    <t>25061401566</t>
-  </si>
-  <si>
-    <t>25061100805</t>
-  </si>
-  <si>
-    <t>25061001575</t>
-  </si>
-  <si>
-    <t>25061103025</t>
-  </si>
-  <si>
-    <t>90000014829</t>
-  </si>
-  <si>
-    <t>25061004617</t>
-  </si>
-  <si>
-    <t>25012100250</t>
-  </si>
-  <si>
-    <t>25061400977</t>
-  </si>
-  <si>
-    <t>25012101253</t>
-  </si>
-  <si>
-    <t>25061000650</t>
-  </si>
-  <si>
-    <t>25061414138</t>
-  </si>
-  <si>
-    <t>25061401061</t>
-  </si>
-  <si>
-    <t>25061006737</t>
-  </si>
-  <si>
-    <t>25061401002</t>
-  </si>
-  <si>
-    <t>25061414107</t>
-  </si>
-  <si>
-    <t>25061414070</t>
-  </si>
-  <si>
-    <t>25061009908</t>
-  </si>
-  <si>
-    <t>25061414031</t>
-  </si>
-  <si>
-    <t>25061401200</t>
-  </si>
-  <si>
-    <t>25061401162</t>
-  </si>
-  <si>
-    <t>25061413969</t>
-  </si>
-  <si>
-    <t>25061004424</t>
-  </si>
-  <si>
-    <t>25061101373</t>
-  </si>
-  <si>
-    <t>25061000121</t>
-  </si>
-  <si>
-    <t>25061004976</t>
-  </si>
-  <si>
-    <t>25061001169</t>
-  </si>
-  <si>
-    <t>25012100227</t>
-  </si>
-  <si>
-    <t>25061001279</t>
-  </si>
-  <si>
-    <t>25061401846</t>
-  </si>
-  <si>
-    <t>25061001592</t>
-  </si>
-  <si>
-    <t>25061414032</t>
-  </si>
-  <si>
-    <t>Narayanpur Tower &amp; Trama Cente</t>
-  </si>
-  <si>
-    <t>Kuddus Madical Hall</t>
-  </si>
-  <si>
-    <t>Mother Medical hall</t>
-  </si>
-  <si>
-    <t>Moon Hospital</t>
-  </si>
-  <si>
-    <t>Medicine Corner</t>
-  </si>
-  <si>
-    <t>Bismillah Medical Hall</t>
-  </si>
-  <si>
-    <t>Seba Medicine Corner</t>
-  </si>
-  <si>
-    <t>Amin Pharmacy</t>
-  </si>
-  <si>
-    <t>Bandan Madical Hall</t>
-  </si>
-  <si>
-    <t>Ibna Sina Medical Hall</t>
-  </si>
-  <si>
-    <t>New Pharmacy</t>
-  </si>
-  <si>
-    <t>Ananda Pharmacy</t>
-  </si>
-  <si>
-    <t>Datta Pharmacy</t>
-  </si>
-  <si>
-    <t>Iqbal Medical Hall</t>
-  </si>
-  <si>
-    <t>Janashaba Pharmacy</t>
-  </si>
-  <si>
-    <t>Nova Madical Centar</t>
-  </si>
-  <si>
-    <t>Kazi Medicine House</t>
-  </si>
-  <si>
-    <t>S R Medical Hall</t>
-  </si>
-  <si>
-    <t>Hazi Ali Arshad Pharmacy</t>
-  </si>
-  <si>
-    <t>M B Pharmacy</t>
-  </si>
-  <si>
-    <t>New Mojumder Pharmacy</t>
-  </si>
-  <si>
-    <t>Aushad Bitan</t>
-  </si>
-  <si>
-    <t>Jalil Medical Hall</t>
-  </si>
-  <si>
-    <t>New Al Makka Medicine House</t>
-  </si>
-  <si>
-    <t>Dola Pharmacy</t>
+    <t>90000031690</t>
+  </si>
+  <si>
+    <t>12010506859</t>
+  </si>
+  <si>
+    <t>12010145506</t>
+  </si>
+  <si>
+    <t>90000013665</t>
+  </si>
+  <si>
+    <t>12010509627</t>
+  </si>
+  <si>
+    <t>12010500952</t>
+  </si>
+  <si>
+    <t>12010502027</t>
+  </si>
+  <si>
+    <t>12010506442</t>
+  </si>
+  <si>
+    <t>12010124433</t>
+  </si>
+  <si>
+    <t>12010500490</t>
+  </si>
+  <si>
+    <t>12010511617</t>
+  </si>
+  <si>
+    <t>90000021636</t>
+  </si>
+  <si>
+    <t>90000019237</t>
+  </si>
+  <si>
+    <t>12010510009</t>
+  </si>
+  <si>
+    <t>12010501282</t>
+  </si>
+  <si>
+    <t>12010508574</t>
+  </si>
+  <si>
+    <t>12010511346</t>
+  </si>
+  <si>
+    <t>1201500479</t>
+  </si>
+  <si>
+    <t>12010508986</t>
+  </si>
+  <si>
+    <t>1201500860</t>
+  </si>
+  <si>
+    <t>12010511572</t>
+  </si>
+  <si>
+    <t>12010500872</t>
+  </si>
+  <si>
+    <t>12010139816</t>
+  </si>
+  <si>
+    <t>12010503843</t>
+  </si>
+  <si>
+    <t>12010508265</t>
+  </si>
+  <si>
+    <t>12010504211</t>
+  </si>
+  <si>
+    <t>12010144409</t>
+  </si>
+  <si>
+    <t>12010110251</t>
+  </si>
+  <si>
+    <t>12010500814</t>
+  </si>
+  <si>
+    <t>12010127035</t>
+  </si>
+  <si>
+    <t>12010146106</t>
+  </si>
+  <si>
+    <t>12010145610</t>
+  </si>
+  <si>
+    <t>12010511240</t>
+  </si>
+  <si>
+    <t>G.D.C Pharmacy</t>
+  </si>
+  <si>
+    <t>Kushtia Pharmacy</t>
+  </si>
+  <si>
+    <t>Rafi Pharmacy</t>
+  </si>
+  <si>
+    <t>Eastern Care Hospital Limited.</t>
+  </si>
+  <si>
+    <t>Ayon Pharmacy</t>
+  </si>
+  <si>
+    <t>Zakia Pharmacy</t>
+  </si>
+  <si>
+    <t>PM Pharma</t>
+  </si>
+  <si>
+    <t>Sajid Pharmacy</t>
+  </si>
+  <si>
+    <t>Janata Pharmacy</t>
+  </si>
+  <si>
+    <t>Labaid Cardiac Hospital</t>
+  </si>
+  <si>
+    <t>Prime Orthopedic And General H</t>
+  </si>
+  <si>
+    <t>Dhoal Pharma</t>
+  </si>
+  <si>
+    <t>BRITISH AMERICAN TOBACO CURE &amp;</t>
+  </si>
+  <si>
+    <t>Islamia Pharmacy</t>
+  </si>
+  <si>
+    <t>Jonata Pharmacy</t>
+  </si>
+  <si>
+    <t>Ashrafi Pharmacy</t>
+  </si>
+  <si>
+    <t>HAZI PHARMACY</t>
+  </si>
+  <si>
+    <t>Babul Pharmacy</t>
+  </si>
+  <si>
+    <t>Basundhara Eye Hospital And Re</t>
+  </si>
+  <si>
+    <t>Tanaz Pharma</t>
+  </si>
+  <si>
+    <t>A B Pharma</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Nasir Drug House</t>
+  </si>
+  <si>
+    <t>Khan Pharmacy</t>
+  </si>
+  <si>
+    <t>Shariatpur Pharmacy</t>
+  </si>
+  <si>
+    <t>Northern Medical College Hosp</t>
   </si>
   <si>
     <t>Al Amin Pharmacy</t>
   </si>
   <si>
-    <t>Cresent Hospital</t>
-  </si>
-  <si>
-    <t>Bengal Medical Hall</t>
-  </si>
-  <si>
-    <t>Kalicharan Medical Hall</t>
-  </si>
-  <si>
-    <t>Al Madina Hospital</t>
-  </si>
-  <si>
-    <t>Brothers Medicine Corner</t>
-  </si>
-  <si>
-    <t>Tajul Medical Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narayanpur ,Motlab,Chandpur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogi Bazar ,Monohorgonj ,Comilla                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalir Bazar Road, Faridgonj ,Chandpur                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,Stadium Road ,Chandpur                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suchipara Purbo Bazar,Shahrasti,Chandpur                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bongshi Steel Bridge,Roypur,Laxmipur                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aligonj ,Hazigonj, Chandpur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bashabari Bazar,Roypur ,Laxmipur                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin Bazar Sonapur,Ramgonj ,Laksmipur                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paniala,Ramgonj,Laxmipur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road,Kachua Bazar,Kachua,Chandpur                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Ashutosh Ach Baburhat,Chandpur                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazigonj Tower First Floor Hazigonj,chandpur                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohespur, Barura,Comilla                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Wark Bazar, Saharasti,Chandpur                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandpur Ralgate,Laksham ,ComillaComilla                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modaffargonj,Laksham,Comilla                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bizra Bazar ,Comilla DL No 462 A B DL No 462 A B            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandargow Bazar,Keyari Dadghar,Monohorgonj,Comilla          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adda Bazar, Barura ,Comilla                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakila Bazar,Hazigonj,Chandpur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitalgat ,Shahrasti,Chandpur                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beside Rail Station ,Nangalkot ,Comilla                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate ,Nangalkot ,Comilla Pro Hazi Shahadat Hossain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poura New Market,Kalibari,Chandpur                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouranga Bazar,Matlab North                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarna Khola Road New Busstand, Chandpur                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonapur,Ramgonj,Laxmipur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krishi Bank Road Rath Bazar,Matlab,Chandpur                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roypur Road, Faridgonj,Chandpur                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish Market,Changerchar Bazar,Matlab North                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolta Bazar,Ramgonj,Laxmipur                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL93                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL84                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL85                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361071     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360486     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360318     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360799     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361080     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-360849     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361305     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361370     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361287     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361809     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361472     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361897     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361479     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361945     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361948     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361822     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361776     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362027     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361657     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361693     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361778     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361689     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-361763     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362065     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362375     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362019     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362335     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362106     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362394     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362250     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-362344     </t>
-  </si>
-  <si>
-    <t>16 May 2020</t>
-  </si>
-  <si>
-    <t>17 May 2020</t>
-  </si>
-  <si>
-    <t>18 May 2020</t>
-  </si>
-  <si>
-    <t>19 May 2020</t>
+    <t>Rana Enterprise</t>
+  </si>
+  <si>
+    <t>Ettady Pharmacy</t>
+  </si>
+  <si>
+    <t>Lavender Drug Corner Hat Bazar</t>
+  </si>
+  <si>
+    <t>Zaman Medical Hall</t>
+  </si>
+  <si>
+    <t>Nazrul Pharmacy</t>
+  </si>
+  <si>
+    <t>N S Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheba House, Plot No-34, Road No-46, Gulshan-2, Dhaka       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Townhall Govt Market MohammadpurDhaka                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">148 3 GazmohalHazaribagDhaka                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/3, Gate - 2,Block - A,Lalmatia,Dhaka-1207                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karwanbazar                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 East Tejturi BazarTejgaonDhaka                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 Govt Townhal MarketMohammadpurDhaka                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaymoli Housing R 6PC culture SkhertechMohammadpur         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranavola RoadKamarparaUttara                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanmondi Dhaka                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College gate MohammadpurDhaka                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Co-Operative Medicine Market,Shahbag,Dhaka             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New DOSH,Mohakhali,Dhaka                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakkhin Khan                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HazaribagVagolpur Company Gate Dhaka                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRC Geneva Camp Humayun RoadMohammadpurDhaka               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Hazi CampAshkonaUttara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 Elephant RoadCompath Diagnostic Centre                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot 474 Block D BasundharaDhaka                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H - 35 ,R -1 A B-J Baridhara,Dhaka                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town Hall MarketMohammadpurDhaka                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 A 16 1 Shaheed Buddhijibi Road ZafrabadRayer Bazar      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dour Near Police Station Uttara                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumni Bazar KhilkhetUttara                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaynalmarket Dewan bariUttara Dhaka                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 NoDhanmondiDhanmondiDhaka                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kachkura BazarUttoraDhaka                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C 38 Zakir Hossain RoadMohammadpurDhaka                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 07 Road 03 PCCulture RoadShekhertak                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 8 A Road 4DhanmondiDhaka                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khilkhet BottolaUttara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 1 Nobipur LaneHazaribagDhaka                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">293 Tali Office RoadRayer BazarDhaka                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-895930     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958248     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958683     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958017     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958448     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958118     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958430     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958181     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-957893     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-865387     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959559     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959209     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-979730     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-937982     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959674     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959691     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959152     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-958889     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959587     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-937513     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959682     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-960378     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-938559     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-960598     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-960657     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-960055     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-959885     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-960616     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-898816     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961864     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961553     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-962048     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-981372     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961984     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961322     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-898867     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961249     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961597     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-961810     </t>
+  </si>
+  <si>
+    <t>09 Mar 2020</t>
+  </si>
+  <si>
+    <t>07 Jun 2020</t>
+  </si>
+  <si>
+    <t>30 Jan 2020</t>
+  </si>
+  <si>
+    <t>08 Jun 2020</t>
+  </si>
+  <si>
+    <t>28 Jun 2020</t>
+  </si>
+  <si>
+    <t>09 May 2020</t>
+  </si>
+  <si>
+    <t>09 Jun 2020</t>
+  </si>
+  <si>
+    <t>10 May 2020</t>
+  </si>
+  <si>
+    <t>12 Mar 2020</t>
+  </si>
+  <si>
+    <t>10 Jun 2020</t>
+  </si>
+  <si>
+    <t>30 Jun 2020</t>
   </si>
 </sst>
 </file>
@@ -860,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,28 +966,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>60001.93</v>
+        <v>23463.15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -947,19 +998,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -968,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>44833.75</v>
+        <v>22956.73</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -979,19 +1030,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -1000,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15024.7</v>
+        <v>20283.67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1011,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1032,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10871.76</v>
+        <v>16588.55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1043,19 +1094,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1064,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10092.48</v>
+        <v>13895.43</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1075,19 +1126,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1096,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10011.18</v>
+        <v>13111.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1107,19 +1158,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1128,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8104.78</v>
+        <v>12136.97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1139,28 +1190,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>30036.39</v>
+        <v>7450.95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1171,28 +1222,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19615.88</v>
+        <v>4875.85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1203,28 +1254,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11">
         <v>160</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>9983.190000000001</v>
+        <v>75119.72</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1232,31 +1283,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>68091.95</v>
+        <v>49662.61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1264,31 +1315,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>49172.43</v>
+        <v>25723.63</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1296,31 +1347,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>39301.9</v>
+        <v>19995.17</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1328,31 +1379,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>19976.76</v>
+        <v>10560.6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1360,31 +1411,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>15020.65</v>
+        <v>9754.27</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1392,31 +1443,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>14918.6</v>
+        <v>9711.41</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1424,31 +1475,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>14899.07</v>
+        <v>9586.780000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1456,31 +1507,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>14881.57</v>
+        <v>9529.75</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1488,31 +1539,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>10054.03</v>
+        <v>7421.69</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1520,31 +1571,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>10027.38</v>
+        <v>6343.21</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1552,31 +1603,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H22">
         <v>30</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>9401.389999999999</v>
+        <v>2207.6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1584,22 +1635,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H23">
         <v>30</v>
@@ -1608,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>8009.47</v>
+        <v>35651.37</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1616,31 +1667,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>3367.3</v>
+        <v>25326.16</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1648,22 +1699,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -1672,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>372.95</v>
+        <v>19307.35</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1680,31 +1731,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H26">
         <v>30</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>34990.62</v>
+        <v>14770.25</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1712,31 +1763,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H27">
         <v>30</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>24821.41</v>
+        <v>10063.53</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1744,31 +1795,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>24556.27</v>
+        <v>9968.790000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1776,31 +1827,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H29">
         <v>30</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>14982.68</v>
+        <v>2209.34</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1808,31 +1859,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I30">
         <v>3</v>
       </c>
       <c r="J30">
-        <v>14947.64</v>
+        <v>29750.2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1840,22 +1891,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -1864,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="J31">
-        <v>12804.93</v>
+        <v>24925.31</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1872,22 +1923,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -1896,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>9990.92</v>
+        <v>14966.47</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1904,22 +1955,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -1928,7 +1979,231 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>6099.04</v>
+        <v>14472.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>11304.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>10031.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>5929.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37">
+        <v>120</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>5056.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3590.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>2182.87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>1003.27</v>
       </c>
     </row>
   </sheetData>
